--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1587.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1587.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.325801563783655</v>
+        <v>0.4387992322444916</v>
       </c>
       <c r="B1">
-        <v>3.238135244291501</v>
+        <v>0.7151414155960083</v>
       </c>
       <c r="C1">
-        <v>5.620977813559018</v>
+        <v>2.179933547973633</v>
       </c>
       <c r="D1">
-        <v>1.675556134140895</v>
+        <v>4.72902774810791</v>
       </c>
       <c r="E1">
-        <v>0.9198584271410992</v>
+        <v>2.181148290634155</v>
       </c>
     </row>
   </sheetData>
